--- a/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
+++ b/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\자바문제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\problem\back\java_prob\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,11 +792,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,27 +808,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
+++ b/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\problem\back\java_prob\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\자바문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,11 +792,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,27 +808,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
+++ b/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\자바문제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\problem\back\java_prob\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,11 +792,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,27 +808,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,19 +840,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3608,7 +3608,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
+++ b/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
@@ -800,7 +800,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3608,7 +3608,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
+++ b/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>

--- a/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
+++ b/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>

--- a/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
+++ b/back/java_prob/18회차_실습체크리스트_박다빈.xlsx
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
